--- a/DetailDesign.xlsx
+++ b/DetailDesign.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
+    <sheet name="Database Design" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>account_id</t>
   </si>
@@ -162,13 +163,76 @@
   </si>
   <si>
     <t>AddAccount</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>invoice_tbl</t>
+  </si>
+  <si>
+    <t>invoice_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>payment_tbl</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>adjusted_amt</t>
+  </si>
+  <si>
+    <t>payment_detail_tbl</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>defaults</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>settings_reminder</t>
+  </si>
+  <si>
+    <t>email_subject</t>
+  </si>
+  <si>
+    <t>email_text</t>
+  </si>
+  <si>
+    <t>email_bcc</t>
+  </si>
+  <si>
+    <t>email_cc</t>
+  </si>
+  <si>
+    <t>email_reply_to</t>
+  </si>
+  <si>
+    <t>sms_text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +248,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +276,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,11 +318,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -241,6 +344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,6 +924,9 @@
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -822,6 +935,184 @@
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
